--- a/data files/Purchase Order/TROIKAA.xlsx
+++ b/data files/Purchase Order/TROIKAA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA134A-1B2B-453A-A975-96109E7234B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>To,</t>
   </si>
@@ -123,12 +124,15 @@
   <si>
     <t>PCS</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,7 +293,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,7 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,7 +323,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -382,6 +385,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,7 +413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 1"/>
+        <xdr:cNvPr id="3" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -432,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -472,7 +489,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -506,6 +523,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -540,9 +558,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -715,24 +734,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" style="32" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" style="31" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="37"/>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -740,8 +759,8 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.5">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13"/>
@@ -751,21 +770,21 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -773,8 +792,8 @@
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="11"/>
@@ -786,8 +805,8 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="11"/>
@@ -798,29 +817,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11"/>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -829,52 +848,52 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="16"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="16"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -882,129 +901,131 @@
       <c r="C15" s="7"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" s="28" customFormat="1" ht="15.75">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="33"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="6.75" customHeight="1">
+    <row r="25" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="33"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="34"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="33"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="3:4" ht="15.75">
+    <row r="33" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1013,24 +1034,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/TROIKAA.xlsx
+++ b/data files/Purchase Order/TROIKAA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA134A-1B2B-453A-A975-96109E7234B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9CF75F-6431-4AF1-B03B-B6CD44BCB45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -737,20 +737,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" style="31" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -759,7 +759,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
@@ -783,7 +783,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -792,7 +792,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>18</v>
       </c>
@@ -805,7 +805,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>22</v>
       </c>
@@ -817,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="11"/>
       <c r="C7" s="30"/>
@@ -825,7 +825,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -839,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -852,7 +852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="16"/>
       <c r="D12" s="1"/>
@@ -880,7 +880,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="20"/>
       <c r="D13" s="16"/>
@@ -888,12 +888,12 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -901,12 +901,12 @@
       <c r="C15" s="7"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>10</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
@@ -934,7 +934,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>27</v>
@@ -949,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -964,7 +964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -979,13 +979,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="34"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -993,7 +994,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1001,25 +1002,25 @@
       <c r="C24" s="32"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="33"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="33"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
@@ -1039,7 +1040,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1051,7 +1052,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
